--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -454,10 +478,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -501,28 +525,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="3">
+      <c r="C13" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -547,28 +571,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="3">
+      <c r="F15" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="3">
+      <c r="I15" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +738,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -761,28 +785,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="3">
+      <c r="C22" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -807,28 +831,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -945,10 +969,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -992,28 +1016,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="3">
+      <c r="C30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1038,28 +1062,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1234,10 +1258,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1281,28 +1305,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="C40" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1327,28 +1351,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1552,10 +1576,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1599,28 +1623,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="3">
+      <c r="C51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1645,28 +1669,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1783,10 +1807,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1830,28 +1854,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1876,28 +1900,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2101,10 +2125,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2148,28 +2172,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2194,28 +2218,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2361,10 +2385,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="J77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2408,28 +2432,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="C79" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2454,28 +2478,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2563,10 +2587,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="3" t="s">
+      <c r="J84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2610,28 +2634,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="3">
+      <c r="A86" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="3">
+      <c r="C86" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2656,28 +2680,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="3">
+      <c r="C88" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="3">
+      <c r="D88" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="3">
+      <c r="I88" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2939,10 +2963,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2986,28 +3010,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3032,28 +3056,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3199,10 +3223,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="J106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3246,28 +3270,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="3">
+      <c r="A108" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="3">
+      <c r="C108" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3292,28 +3316,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="3">
+      <c r="C110" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="3">
+      <c r="D110" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="3">
+      <c r="I110" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3401,10 +3425,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3448,28 +3472,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3494,28 +3518,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3632,10 +3656,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3" t="s">
+      <c r="J121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3679,28 +3703,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="3">
+      <c r="C123" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3725,28 +3749,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3834,10 +3858,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3881,28 +3905,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3927,28 +3951,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4065,10 +4089,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="J136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4112,28 +4136,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="3">
+      <c r="C138" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4158,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4267,10 +4291,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4314,28 +4338,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4360,28 +4384,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4469,10 +4493,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4516,28 +4540,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4562,28 +4586,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4671,10 +4695,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4718,28 +4742,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4764,28 +4788,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4897,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4944,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4990,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5099,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5122,28 +5146,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5168,28 +5192,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5277,10 +5301,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="3" t="s">
+      <c r="J178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5324,28 +5348,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="3">
+      <c r="A180" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="3">
+      <c r="C180" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5370,28 +5394,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="3">
+      <c r="C182" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="3">
+      <c r="D182" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="3">
+      <c r="I182" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5479,10 +5503,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="J185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5526,28 +5550,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="3">
+      <c r="A187" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="3">
+      <c r="C187" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5572,28 +5596,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="3">
+      <c r="C189" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="3">
+      <c r="D189" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="3">
+      <c r="I189" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5681,10 +5705,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="J192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5728,28 +5752,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="3">
+      <c r="C194" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5774,28 +5798,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5912,10 +5936,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5959,28 +5983,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6005,28 +6029,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6114,10 +6138,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6161,28 +6185,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6207,28 +6231,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6316,10 +6340,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6363,28 +6387,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6409,28 +6433,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6547,10 +6571,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="3" t="s">
+      <c r="J222" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6594,28 +6618,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="3">
+      <c r="A224" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="3">
+      <c r="C224" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6640,28 +6664,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="3">
+      <c r="C226" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="3">
+      <c r="D226" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="3">
+      <c r="I226" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6778,10 +6802,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="3" t="s">
+      <c r="J230" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6825,28 +6849,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="3">
+      <c r="A232" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="3">
+      <c r="C232" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6871,28 +6895,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="3">
+      <c r="C234" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="3">
+      <c r="D234" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="3">
+      <c r="I234" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6980,10 +7004,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7027,28 +7051,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7073,28 +7097,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7269,10 +7293,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="3" t="s">
+      <c r="J247" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7316,28 +7340,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="3">
+      <c r="A249" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="3">
+      <c r="C249" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7362,28 +7386,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="3">
+      <c r="C251" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="3">
+      <c r="D251" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="3">
+      <c r="I251" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7471,10 +7495,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="3" t="s">
+      <c r="J254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7518,28 +7542,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="3">
+      <c r="A256" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="3">
+      <c r="C256" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7564,28 +7588,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="3">
+      <c r="C258" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="3">
+      <c r="D258" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="3">
+      <c r="I258" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7673,10 +7697,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
